--- a/DateBase/orders/Nhat 48_2025-12-25.xlsx
+++ b/DateBase/orders/Nhat 48_2025-12-25.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -527,9 +527,88 @@
         <v>5</v>
       </c>
     </row>
+    <row r="12">
+      <c r="C12" t="str">
+        <v>348_万年青_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F12" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
+        <v>495_大飞燕深粉色_delphinium pink_undefined_1bunch</v>
+      </c>
+      <c r="F13" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>403_大飞燕浅蓝色_delphinium light blue_undefined_1bunch</v>
+      </c>
+      <c r="F14" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" xml:space="preserve">
+      <c r="C15" t="str" xml:space="preserve">
+        <v xml:space="preserve">405_小飞燕浅蓝_ delphinium ballkleid
+dark blue_undefined_1bunch</v>
+      </c>
+      <c r="F15" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" xml:space="preserve">
+      <c r="C16" t="str" xml:space="preserve">
+        <v xml:space="preserve">497_小飞燕粉色_delphinium ballkleid
+pink_undefined_1bunch</v>
+      </c>
+      <c r="F16" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>596_橄榄叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F17" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="str">
+        <v>316_尤加利叶大叶_Eucalyptus Cinerea_undefined_1bunch</v>
+      </c>
+      <c r="F18" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="str">
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
+      </c>
+      <c r="F19" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>777_络新妇白_Astilbe white_undefined_1bunch</v>
+      </c>
+      <c r="F20" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>842_蝴蝶洋牡丹鲑鱼粉_undefined_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -587,7 +666,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>081366121585105</v>
+        <v>08136612158510558201255510100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2025-12-25.xlsx
+++ b/DateBase/orders/Nhat 48_2025-12-25.xlsx
@@ -605,6 +605,9 @@
       <c r="C21" t="str">
         <v>842_蝴蝶洋牡丹鲑鱼粉_undefined_undefined_1bunch</v>
       </c>
+      <c r="F21" t="str">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -666,7 +669,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>08136612158510558201255510100</v>
+        <v>081366121585105582012555101012</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2025-12-25.xlsx
+++ b/DateBase/orders/Nhat 48_2025-12-25.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -609,9 +609,92 @@
         <v>12</v>
       </c>
     </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>820_蝴蝶洋牡丹粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F22" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>302_彩星 浅粉_Tinted Gypso light pink_undefined_0.5kg</v>
+      </c>
+      <c r="F23" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>312_彩星 天蓝_Tinted Gypso tiffany blue_undefined_0.5kg</v>
+      </c>
+      <c r="F24" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>1</v>
+      </c>
+      <c r="C25" t="str">
+        <v>154_莫泊_Moab_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F25" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>177_国王日_Kings Day_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F26" t="str">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F27" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F28" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F29" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>2</v>
+      </c>
+      <c r="C30" t="str">
+        <v>316_尤加利叶大叶_Eucalyptus Cinerea_undefined_1bunch</v>
+      </c>
+      <c r="F30" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>327_文竹_asparagus fern_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -669,7 +752,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>081366121585105582012555101012</v>
+        <v>081366121585105582012555101012122010613111010200</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2025-12-25.xlsx
+++ b/DateBase/orders/Nhat 48_2025-12-25.xlsx
@@ -691,6 +691,9 @@
       <c r="C31" t="str">
         <v>327_文竹_asparagus fern_undefined_1bunch</v>
       </c>
+      <c r="F31" t="str">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -752,7 +755,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>081366121585105582012555101012122010613111010200</v>
+        <v>0813661215851055820125551010121220106131110102020</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2025-12-25.xlsx
+++ b/DateBase/orders/Nhat 48_2025-12-25.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -695,9 +695,91 @@
         <v>20</v>
       </c>
     </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>107_绣球浅粉_Hydrangea Light Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F32" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>106_绣球粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F33" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" xml:space="preserve">
+      <c r="C34" t="str" xml:space="preserve">
+        <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
+white_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F34" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>9_茶色洋桔梗_Tea Color Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F35" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F36" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>3</v>
+      </c>
+      <c r="C37" t="str">
+        <v>648_洋牡丹河内_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F37" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>649_洋牡丹樱花粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F38" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>651_大丽花 奶油桃子_undefined_undefined_5stems</v>
+      </c>
+      <c r="F39" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" xml:space="preserve">
+      <c r="C40" t="str" xml:space="preserve">
+        <v xml:space="preserve">386_菟葵绿粉 
+green_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F40" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="str">
+        <v>576_迷你菊紫_undefined_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -755,7 +837,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0813661215851055820125551010121220106131110102020</v>
+        <v>081366121585105582012555101012122010613111010202020302051010101030</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2025-12-25.xlsx
+++ b/DateBase/orders/Nhat 48_2025-12-25.xlsx
@@ -776,6 +776,9 @@
       <c r="C41" t="str">
         <v>576_迷你菊紫_undefined_undefined_1bunch</v>
       </c>
+      <c r="F41" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -837,7 +840,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>081366121585105582012555101012122010613111010202020302051010101030</v>
+        <v>081366121585105582012555101012122010613111010202020302051010101035</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2025-12-25.xlsx
+++ b/DateBase/orders/Nhat 48_2025-12-25.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -780,9 +780,92 @@
         <v>5</v>
       </c>
     </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>682_锦鲤粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F42" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>681_锦鲤橙_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F43" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>4</v>
+      </c>
+      <c r="C44" t="str">
+        <v>688_山归来橙_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F44" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>496_大飞燕深蓝色_delphinium dark blue_undefined_1bunch</v>
+      </c>
+      <c r="F45" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>175_火灵鸟_Free Spirit_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F46" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>600_康乃馨复古红_vintage red_undefined_20stems</v>
+      </c>
+      <c r="F47" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="str">
+        <v>46_拉丝橙_Spider orange_Gerbera L._20stems</v>
+      </c>
+      <c r="F48" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>320_雪柳花_Spiraea flower white_undefined_1bunch</v>
+      </c>
+      <c r="F49" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="str">
+        <v>578_腊梅粉_wax pink_undefined_1bunch</v>
+      </c>
+      <c r="F50" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="str">
+        <v>225_果汁阳台_Juicy Terrazza_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F51" t="str">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -840,7 +923,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>081366121585105582012555101012122010613111010202020302051010101035</v>
+        <v>0813661215851055820125551010121220106131110102020203020510101010355556121510201010</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2025-12-25.xlsx
+++ b/DateBase/orders/Nhat 48_2025-12-25.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -863,9 +863,65 @@
         <v>10</v>
       </c>
     </row>
+    <row r="52">
+      <c r="C52" t="str">
+        <v>611_康乃馨奶油白_cream white_undefined_20stems</v>
+      </c>
+      <c r="F52" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="str">
+        <v>324_小手球_Spiraea flower double petals_undefined_1bunch</v>
+      </c>
+      <c r="F53" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>574_迷你菊白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F54" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="str">
+        <v>418_松虫草白_scabiosa white_undefined_1bunch</v>
+      </c>
+      <c r="F55" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="str">
+        <v>420_松虫草QQ糖_scabiosa white pink_undefined_1bunch</v>
+      </c>
+      <c r="F56" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
+      </c>
+      <c r="F57" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="str">
+        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
+      </c>
+      <c r="F58" t="str">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L58"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -923,7 +979,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0813661215851055820125551010121220106131110102020203020510101010355556121510201010</v>
+        <v>0813661215851055820125551010121220106131110102020203020510101010355556121510201010510101010155</v>
       </c>
     </row>
   </sheetData>
